--- a/data/dados_paulo_afonso_BA.xlsx
+++ b/data/dados_paulo_afonso_BA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F469"/>
+  <dimension ref="A1:F551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10756,6 +10756,1810 @@
         <v>118516</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>02/ago/2021</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C470" t="n">
+        <v>223</v>
+      </c>
+      <c r="D470" t="n">
+        <v>0</v>
+      </c>
+      <c r="E470" t="n">
+        <v>0</v>
+      </c>
+      <c r="F470" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>03/ago/2021</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C471" t="n">
+        <v>223</v>
+      </c>
+      <c r="D471" t="n">
+        <v>0</v>
+      </c>
+      <c r="E471" t="n">
+        <v>0</v>
+      </c>
+      <c r="F471" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>04/ago/2021</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C472" t="n">
+        <v>223</v>
+      </c>
+      <c r="D472" t="n">
+        <v>0</v>
+      </c>
+      <c r="E472" t="n">
+        <v>0</v>
+      </c>
+      <c r="F472" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>05/ago/2021</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C473" t="n">
+        <v>223</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0</v>
+      </c>
+      <c r="F473" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>06/ago/2021</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C474" t="n">
+        <v>223</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0</v>
+      </c>
+      <c r="F474" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>07/ago/2021</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C475" t="n">
+        <v>223</v>
+      </c>
+      <c r="D475" t="n">
+        <v>0</v>
+      </c>
+      <c r="E475" t="n">
+        <v>0</v>
+      </c>
+      <c r="F475" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>08/ago/2021</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C476" t="n">
+        <v>223</v>
+      </c>
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" t="n">
+        <v>0</v>
+      </c>
+      <c r="F476" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>09/ago/2021</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C477" t="n">
+        <v>223</v>
+      </c>
+      <c r="D477" t="n">
+        <v>0</v>
+      </c>
+      <c r="E477" t="n">
+        <v>0</v>
+      </c>
+      <c r="F477" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>10/ago/2021</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C478" t="n">
+        <v>223</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0</v>
+      </c>
+      <c r="F478" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>11/ago/2021</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C479" t="n">
+        <v>223</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0</v>
+      </c>
+      <c r="F479" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>12/ago/2021</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>8703</v>
+      </c>
+      <c r="C480" t="n">
+        <v>223</v>
+      </c>
+      <c r="D480" t="n">
+        <v>0</v>
+      </c>
+      <c r="E480" t="n">
+        <v>0</v>
+      </c>
+      <c r="F480" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>13/ago/2021</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>8750</v>
+      </c>
+      <c r="C481" t="n">
+        <v>229</v>
+      </c>
+      <c r="D481" t="n">
+        <v>6</v>
+      </c>
+      <c r="E481" t="n">
+        <v>47</v>
+      </c>
+      <c r="F481" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>14/ago/2021</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>8750</v>
+      </c>
+      <c r="C482" t="n">
+        <v>229</v>
+      </c>
+      <c r="D482" t="n">
+        <v>0</v>
+      </c>
+      <c r="E482" t="n">
+        <v>0</v>
+      </c>
+      <c r="F482" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>15/ago/2021</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>8755</v>
+      </c>
+      <c r="C483" t="n">
+        <v>229</v>
+      </c>
+      <c r="D483" t="n">
+        <v>0</v>
+      </c>
+      <c r="E483" t="n">
+        <v>5</v>
+      </c>
+      <c r="F483" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>16/ago/2021</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>8755</v>
+      </c>
+      <c r="C484" t="n">
+        <v>229</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0</v>
+      </c>
+      <c r="F484" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>17/ago/2021</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>8758</v>
+      </c>
+      <c r="C485" t="n">
+        <v>229</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0</v>
+      </c>
+      <c r="E485" t="n">
+        <v>3</v>
+      </c>
+      <c r="F485" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>18/ago/2021</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>8761</v>
+      </c>
+      <c r="C486" t="n">
+        <v>230</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1</v>
+      </c>
+      <c r="E486" t="n">
+        <v>3</v>
+      </c>
+      <c r="F486" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>19/ago/2021</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>8761</v>
+      </c>
+      <c r="C487" t="n">
+        <v>230</v>
+      </c>
+      <c r="D487" t="n">
+        <v>0</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0</v>
+      </c>
+      <c r="F487" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>20/ago/2021</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>8761</v>
+      </c>
+      <c r="C488" t="n">
+        <v>230</v>
+      </c>
+      <c r="D488" t="n">
+        <v>0</v>
+      </c>
+      <c r="E488" t="n">
+        <v>0</v>
+      </c>
+      <c r="F488" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>21/ago/2021</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>8766</v>
+      </c>
+      <c r="C489" t="n">
+        <v>232</v>
+      </c>
+      <c r="D489" t="n">
+        <v>2</v>
+      </c>
+      <c r="E489" t="n">
+        <v>5</v>
+      </c>
+      <c r="F489" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>22/ago/2021</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>8771</v>
+      </c>
+      <c r="C490" t="n">
+        <v>232</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0</v>
+      </c>
+      <c r="E490" t="n">
+        <v>5</v>
+      </c>
+      <c r="F490" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>23/ago/2021</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>8771</v>
+      </c>
+      <c r="C491" t="n">
+        <v>232</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0</v>
+      </c>
+      <c r="F491" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>24/ago/2021</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>8773</v>
+      </c>
+      <c r="C492" t="n">
+        <v>232</v>
+      </c>
+      <c r="D492" t="n">
+        <v>0</v>
+      </c>
+      <c r="E492" t="n">
+        <v>2</v>
+      </c>
+      <c r="F492" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>25/ago/2021</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>8773</v>
+      </c>
+      <c r="C493" t="n">
+        <v>232</v>
+      </c>
+      <c r="D493" t="n">
+        <v>0</v>
+      </c>
+      <c r="E493" t="n">
+        <v>0</v>
+      </c>
+      <c r="F493" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>26/ago/2021</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>8786</v>
+      </c>
+      <c r="C494" t="n">
+        <v>233</v>
+      </c>
+      <c r="D494" t="n">
+        <v>1</v>
+      </c>
+      <c r="E494" t="n">
+        <v>13</v>
+      </c>
+      <c r="F494" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>27/ago/2021</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>8786</v>
+      </c>
+      <c r="C495" t="n">
+        <v>233</v>
+      </c>
+      <c r="D495" t="n">
+        <v>0</v>
+      </c>
+      <c r="E495" t="n">
+        <v>0</v>
+      </c>
+      <c r="F495" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>28/ago/2021</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>8786</v>
+      </c>
+      <c r="C496" t="n">
+        <v>233</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0</v>
+      </c>
+      <c r="F496" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>29/ago/2021</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>8786</v>
+      </c>
+      <c r="C497" t="n">
+        <v>233</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0</v>
+      </c>
+      <c r="F497" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>30/ago/2021</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>8786</v>
+      </c>
+      <c r="C498" t="n">
+        <v>233</v>
+      </c>
+      <c r="D498" t="n">
+        <v>0</v>
+      </c>
+      <c r="E498" t="n">
+        <v>0</v>
+      </c>
+      <c r="F498" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>31/ago/2021</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>8786</v>
+      </c>
+      <c r="C499" t="n">
+        <v>233</v>
+      </c>
+      <c r="D499" t="n">
+        <v>0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>0</v>
+      </c>
+      <c r="F499" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>01/set/2021</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>8796</v>
+      </c>
+      <c r="C500" t="n">
+        <v>233</v>
+      </c>
+      <c r="D500" t="n">
+        <v>0</v>
+      </c>
+      <c r="E500" t="n">
+        <v>10</v>
+      </c>
+      <c r="F500" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>02/set/2021</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>8798</v>
+      </c>
+      <c r="C501" t="n">
+        <v>233</v>
+      </c>
+      <c r="D501" t="n">
+        <v>0</v>
+      </c>
+      <c r="E501" t="n">
+        <v>2</v>
+      </c>
+      <c r="F501" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>03/set/2021</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>8798</v>
+      </c>
+      <c r="C502" t="n">
+        <v>233</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0</v>
+      </c>
+      <c r="F502" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>04/set/2021</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>8798</v>
+      </c>
+      <c r="C503" t="n">
+        <v>233</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0</v>
+      </c>
+      <c r="F503" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>05/set/2021</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>8798</v>
+      </c>
+      <c r="C504" t="n">
+        <v>233</v>
+      </c>
+      <c r="D504" t="n">
+        <v>0</v>
+      </c>
+      <c r="E504" t="n">
+        <v>0</v>
+      </c>
+      <c r="F504" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>06/set/2021</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>8798</v>
+      </c>
+      <c r="C505" t="n">
+        <v>233</v>
+      </c>
+      <c r="D505" t="n">
+        <v>0</v>
+      </c>
+      <c r="E505" t="n">
+        <v>0</v>
+      </c>
+      <c r="F505" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="inlineStr">
+        <is>
+          <t>07/set/2021</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>8818</v>
+      </c>
+      <c r="C506" t="n">
+        <v>233</v>
+      </c>
+      <c r="D506" t="n">
+        <v>0</v>
+      </c>
+      <c r="E506" t="n">
+        <v>20</v>
+      </c>
+      <c r="F506" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="inlineStr">
+        <is>
+          <t>08/set/2021</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>8818</v>
+      </c>
+      <c r="C507" t="n">
+        <v>233</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0</v>
+      </c>
+      <c r="F507" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="inlineStr">
+        <is>
+          <t>09/set/2021</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>8818</v>
+      </c>
+      <c r="C508" t="n">
+        <v>233</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0</v>
+      </c>
+      <c r="F508" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="inlineStr">
+        <is>
+          <t>10/set/2021</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>8818</v>
+      </c>
+      <c r="C509" t="n">
+        <v>233</v>
+      </c>
+      <c r="D509" t="n">
+        <v>0</v>
+      </c>
+      <c r="E509" t="n">
+        <v>0</v>
+      </c>
+      <c r="F509" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="inlineStr">
+        <is>
+          <t>11/set/2021</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>8818</v>
+      </c>
+      <c r="C510" t="n">
+        <v>233</v>
+      </c>
+      <c r="D510" t="n">
+        <v>0</v>
+      </c>
+      <c r="E510" t="n">
+        <v>0</v>
+      </c>
+      <c r="F510" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="inlineStr">
+        <is>
+          <t>12/set/2021</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>8818</v>
+      </c>
+      <c r="C511" t="n">
+        <v>233</v>
+      </c>
+      <c r="D511" t="n">
+        <v>0</v>
+      </c>
+      <c r="E511" t="n">
+        <v>0</v>
+      </c>
+      <c r="F511" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="inlineStr">
+        <is>
+          <t>13/set/2021</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>8824</v>
+      </c>
+      <c r="C512" t="n">
+        <v>233</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0</v>
+      </c>
+      <c r="E512" t="n">
+        <v>6</v>
+      </c>
+      <c r="F512" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="inlineStr">
+        <is>
+          <t>14/set/2021</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>8824</v>
+      </c>
+      <c r="C513" t="n">
+        <v>233</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0</v>
+      </c>
+      <c r="F513" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="inlineStr">
+        <is>
+          <t>15/set/2021</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C514" t="n">
+        <v>233</v>
+      </c>
+      <c r="D514" t="n">
+        <v>0</v>
+      </c>
+      <c r="E514" t="n">
+        <v>1</v>
+      </c>
+      <c r="F514" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="inlineStr">
+        <is>
+          <t>16/set/2021</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C515" t="n">
+        <v>233</v>
+      </c>
+      <c r="D515" t="n">
+        <v>0</v>
+      </c>
+      <c r="E515" t="n">
+        <v>0</v>
+      </c>
+      <c r="F515" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="inlineStr">
+        <is>
+          <t>17/set/2021</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C516" t="n">
+        <v>233</v>
+      </c>
+      <c r="D516" t="n">
+        <v>0</v>
+      </c>
+      <c r="E516" t="n">
+        <v>0</v>
+      </c>
+      <c r="F516" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="inlineStr">
+        <is>
+          <t>18/set/2021</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C517" t="n">
+        <v>233</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0</v>
+      </c>
+      <c r="F517" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="inlineStr">
+        <is>
+          <t>19/set/2021</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C518" t="n">
+        <v>233</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0</v>
+      </c>
+      <c r="F518" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="inlineStr">
+        <is>
+          <t>20/set/2021</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C519" t="n">
+        <v>233</v>
+      </c>
+      <c r="D519" t="n">
+        <v>0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>0</v>
+      </c>
+      <c r="F519" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="inlineStr">
+        <is>
+          <t>21/set/2021</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C520" t="n">
+        <v>233</v>
+      </c>
+      <c r="D520" t="n">
+        <v>0</v>
+      </c>
+      <c r="E520" t="n">
+        <v>0</v>
+      </c>
+      <c r="F520" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="inlineStr">
+        <is>
+          <t>22/set/2021</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C521" t="n">
+        <v>233</v>
+      </c>
+      <c r="D521" t="n">
+        <v>0</v>
+      </c>
+      <c r="E521" t="n">
+        <v>0</v>
+      </c>
+      <c r="F521" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="inlineStr">
+        <is>
+          <t>23/set/2021</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C522" t="n">
+        <v>233</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0</v>
+      </c>
+      <c r="F522" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="inlineStr">
+        <is>
+          <t>24/set/2021</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C523" t="n">
+        <v>233</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0</v>
+      </c>
+      <c r="F523" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="inlineStr">
+        <is>
+          <t>25/set/2021</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C524" t="n">
+        <v>233</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0</v>
+      </c>
+      <c r="F524" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="inlineStr">
+        <is>
+          <t>26/set/2021</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C525" t="n">
+        <v>233</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0</v>
+      </c>
+      <c r="F525" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="inlineStr">
+        <is>
+          <t>27/set/2021</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C526" t="n">
+        <v>233</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0</v>
+      </c>
+      <c r="F526" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="inlineStr">
+        <is>
+          <t>28/set/2021</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C527" t="n">
+        <v>233</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0</v>
+      </c>
+      <c r="F527" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="inlineStr">
+        <is>
+          <t>29/set/2021</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C528" t="n">
+        <v>233</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0</v>
+      </c>
+      <c r="F528" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="inlineStr">
+        <is>
+          <t>30/set/2021</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C529" t="n">
+        <v>233</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0</v>
+      </c>
+      <c r="F529" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="inlineStr">
+        <is>
+          <t>01/out/2021</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C530" t="n">
+        <v>233</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0</v>
+      </c>
+      <c r="F530" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="inlineStr">
+        <is>
+          <t>02/out/2021</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C531" t="n">
+        <v>233</v>
+      </c>
+      <c r="D531" t="n">
+        <v>0</v>
+      </c>
+      <c r="E531" t="n">
+        <v>0</v>
+      </c>
+      <c r="F531" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="inlineStr">
+        <is>
+          <t>03/out/2021</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C532" t="n">
+        <v>233</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0</v>
+      </c>
+      <c r="F532" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="inlineStr">
+        <is>
+          <t>04/out/2021</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>8825</v>
+      </c>
+      <c r="C533" t="n">
+        <v>233</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0</v>
+      </c>
+      <c r="F533" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="inlineStr">
+        <is>
+          <t>05/out/2021</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>8839</v>
+      </c>
+      <c r="C534" t="n">
+        <v>234</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1</v>
+      </c>
+      <c r="E534" t="n">
+        <v>14</v>
+      </c>
+      <c r="F534" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="inlineStr">
+        <is>
+          <t>06/out/2021</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>8840</v>
+      </c>
+      <c r="C535" t="n">
+        <v>234</v>
+      </c>
+      <c r="D535" t="n">
+        <v>0</v>
+      </c>
+      <c r="E535" t="n">
+        <v>1</v>
+      </c>
+      <c r="F535" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="inlineStr">
+        <is>
+          <t>07/out/2021</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>8845</v>
+      </c>
+      <c r="C536" t="n">
+        <v>234</v>
+      </c>
+      <c r="D536" t="n">
+        <v>0</v>
+      </c>
+      <c r="E536" t="n">
+        <v>5</v>
+      </c>
+      <c r="F536" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="inlineStr">
+        <is>
+          <t>08/out/2021</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>8845</v>
+      </c>
+      <c r="C537" t="n">
+        <v>234</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0</v>
+      </c>
+      <c r="F537" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="inlineStr">
+        <is>
+          <t>09/out/2021</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>8845</v>
+      </c>
+      <c r="C538" t="n">
+        <v>234</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0</v>
+      </c>
+      <c r="F538" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="inlineStr">
+        <is>
+          <t>10/out/2021</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>8850</v>
+      </c>
+      <c r="C539" t="n">
+        <v>235</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1</v>
+      </c>
+      <c r="E539" t="n">
+        <v>5</v>
+      </c>
+      <c r="F539" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="inlineStr">
+        <is>
+          <t>11/out/2021</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>8851</v>
+      </c>
+      <c r="C540" t="n">
+        <v>235</v>
+      </c>
+      <c r="D540" t="n">
+        <v>0</v>
+      </c>
+      <c r="E540" t="n">
+        <v>1</v>
+      </c>
+      <c r="F540" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="inlineStr">
+        <is>
+          <t>12/out/2021</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>8851</v>
+      </c>
+      <c r="C541" t="n">
+        <v>235</v>
+      </c>
+      <c r="D541" t="n">
+        <v>0</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0</v>
+      </c>
+      <c r="F541" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="inlineStr">
+        <is>
+          <t>13/out/2021</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>8851</v>
+      </c>
+      <c r="C542" t="n">
+        <v>235</v>
+      </c>
+      <c r="D542" t="n">
+        <v>0</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0</v>
+      </c>
+      <c r="F542" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="inlineStr">
+        <is>
+          <t>14/out/2021</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>8854</v>
+      </c>
+      <c r="C543" t="n">
+        <v>235</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0</v>
+      </c>
+      <c r="E543" t="n">
+        <v>3</v>
+      </c>
+      <c r="F543" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="inlineStr">
+        <is>
+          <t>15/out/2021</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>8854</v>
+      </c>
+      <c r="C544" t="n">
+        <v>235</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0</v>
+      </c>
+      <c r="F544" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="inlineStr">
+        <is>
+          <t>16/out/2021</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>8854</v>
+      </c>
+      <c r="C545" t="n">
+        <v>235</v>
+      </c>
+      <c r="D545" t="n">
+        <v>0</v>
+      </c>
+      <c r="E545" t="n">
+        <v>0</v>
+      </c>
+      <c r="F545" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="inlineStr">
+        <is>
+          <t>17/out/2021</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>8854</v>
+      </c>
+      <c r="C546" t="n">
+        <v>235</v>
+      </c>
+      <c r="D546" t="n">
+        <v>0</v>
+      </c>
+      <c r="E546" t="n">
+        <v>0</v>
+      </c>
+      <c r="F546" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="inlineStr">
+        <is>
+          <t>18/out/2021</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>8862</v>
+      </c>
+      <c r="C547" t="n">
+        <v>235</v>
+      </c>
+      <c r="D547" t="n">
+        <v>0</v>
+      </c>
+      <c r="E547" t="n">
+        <v>8</v>
+      </c>
+      <c r="F547" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="inlineStr">
+        <is>
+          <t>19/out/2021</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>8868</v>
+      </c>
+      <c r="C548" t="n">
+        <v>235</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0</v>
+      </c>
+      <c r="E548" t="n">
+        <v>6</v>
+      </c>
+      <c r="F548" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="inlineStr">
+        <is>
+          <t>20/out/2021</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>8872</v>
+      </c>
+      <c r="C549" t="n">
+        <v>235</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0</v>
+      </c>
+      <c r="E549" t="n">
+        <v>4</v>
+      </c>
+      <c r="F549" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="inlineStr">
+        <is>
+          <t>21/out/2021</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>8881</v>
+      </c>
+      <c r="C550" t="n">
+        <v>235</v>
+      </c>
+      <c r="D550" t="n">
+        <v>0</v>
+      </c>
+      <c r="E550" t="n">
+        <v>9</v>
+      </c>
+      <c r="F550" t="n">
+        <v>118516</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="inlineStr">
+        <is>
+          <t>22/out/2021</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>8881</v>
+      </c>
+      <c r="C551" t="n">
+        <v>235</v>
+      </c>
+      <c r="D551" t="n">
+        <v>0</v>
+      </c>
+      <c r="E551" t="n">
+        <v>0</v>
+      </c>
+      <c r="F551" t="n">
+        <v>118516</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
